--- a/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
@@ -162,9 +162,6 @@
     <t>TotalAmountAfterAdd</t>
   </si>
   <si>
-    <t>301,60 €</t>
-  </si>
-  <si>
     <t>ItemPriceBeforeUpdate</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>53,80 €</t>
+  </si>
+  <si>
+    <t>311,60 €</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
@@ -621,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
@@ -750,7 +750,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
@@ -174,7 +174,7 @@
     <t>53,80 €</t>
   </si>
   <si>
-    <t>311,60 €</t>
+    <t>321,60 €</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,7 +750,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14080" windowHeight="6240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14080" windowHeight="6240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="update_cart" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="add_cart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="I1:R18"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>Wandlampe Michalina im klassischen Stil</t>
   </si>
@@ -162,6 +161,9 @@
     <t>TotalAmountAfterAdd</t>
   </si>
   <si>
+    <t>301,60 €</t>
+  </si>
+  <si>
     <t>ItemPriceBeforeUpdate</t>
   </si>
   <si>
@@ -172,9 +174,6 @@
   </si>
   <si>
     <t>53,80 €</t>
-  </si>
-  <si>
-    <t>321,60 €</t>
   </si>
 </sst>
 </file>
@@ -497,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -568,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -606,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
@@ -621,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
@@ -630,6 +629,112 @@
         <v>14</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -641,10 +746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -740,6 +845,94 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -747,10 +940,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -760,9 +953,10 @@
     <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -815,7 +1009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -859,13 +1053,119 @@
         <v>12</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/lampenwelt/qa/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14080" windowHeight="6240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15170" windowHeight="6240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="update_cart" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="add_cart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="N1:S17"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>Wandlampe Michalina im klassischen Stil</t>
   </si>
@@ -59,9 +60,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>191,70 €</t>
-  </si>
-  <si>
     <t>218,60 €</t>
   </si>
   <si>
@@ -161,9 +159,6 @@
     <t>TotalAmountAfterAdd</t>
   </si>
   <si>
-    <t>301,60 €</t>
-  </si>
-  <si>
     <t>ItemPriceBeforeUpdate</t>
   </si>
   <si>
@@ -174,13 +169,39 @@
   </si>
   <si>
     <t>53,80 €</t>
+  </si>
+  <si>
+    <t>321,60 €</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>196,70 €</t>
+  </si>
+  <si>
+    <t>4.56/5.00</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ContactInfo</t>
+  </si>
+  <si>
+    <t>Sriram Gatiganti
+sriram.gatiganti@gmail.com</t>
+  </si>
+  <si>
+    <t>4.57/5.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,10 +244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,55 +528,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.25" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.58203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.58203125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="24.58203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.58203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="38.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -567,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -578,10 +604,16 @@
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -590,152 +622,52 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>13</v>
+      <c r="S2" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -746,64 +678,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.4140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.25" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="26.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -812,125 +746,40 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -940,78 +789,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.25" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.25" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1020,152 +869,52 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
